--- a/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
+++ b/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58B13D6-5575-4160-8D2E-02BD28ACE212}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E10B174-654E-4CB2-ACF9-EAD00B84DEA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="2520" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="600" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quick 1-minute Survey about you" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>I have USD, PHL, THB and VND accounts</t>
   </si>
   <si>
-    <t xml:space="preserve">Country </t>
-  </si>
-  <si>
     <t>CurrenciesOutUS</t>
   </si>
   <si>
@@ -115,13 +112,16 @@
   </si>
   <si>
     <t>Award</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,10 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +386,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -394,17 +403,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
+++ b/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E10B174-654E-4CB2-ACF9-EAD00B84DEA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2A668A-953C-4797-A888-0A4244318A98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="600" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Timestamp</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Philippines</t>
-  </si>
-  <si>
-    <t>I have USD, PHL, THB and VND accounts</t>
   </si>
   <si>
     <t>CurrenciesOutUS</t>
@@ -121,11 +118,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,11 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,7 +392,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="B18:C18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -404,16 +410,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -570,8 +576,11 @@
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
+++ b/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2A668A-953C-4797-A888-0A4244318A98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9EBF86-B3EB-4784-AAF8-0C176FCD4C65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="600" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Timestamp</t>
   </si>
@@ -118,11 +118,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,12 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -392,7 +400,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -513,6 +521,9 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>

--- a/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
+++ b/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9EBF86-B3EB-4784-AAF8-0C176FCD4C65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D029FC19-FEF7-4C33-8F65-81B38C5FB96C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="600" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>2022/06/30 7:51:36 PM AST</t>
-  </si>
-  <si>
-    <t>United States</t>
   </si>
   <si>
     <t>Venmo</t>
@@ -118,11 +115,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,14 +178,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +405,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -418,16 +423,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -516,8 +521,8 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -526,12 +531,12 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -543,15 +548,15 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -565,10 +570,10 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -582,10 +587,10 @@
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>

--- a/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
+++ b/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D029FC19-FEF7-4C33-8F65-81B38C5FB96C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D31534-2D14-4278-B7F8-7EA215CFC320}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1665" yWindow="600" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,8 +185,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -521,14 +521,14 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>

--- a/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
+++ b/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D31534-2D14-4278-B7F8-7EA215CFC320}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACFAB13-BD53-4710-B887-C9C8AE87458A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="600" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="3915" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quick 1-minute Survey about you" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>Timestamp</t>
   </si>
@@ -45,9 +45,6 @@
     <t>2022/06/30 8:22:08 AM AST</t>
   </si>
   <si>
-    <t xml:space="preserve">India </t>
-  </si>
-  <si>
     <t>Zelle (NOT Zullee)</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>2022/07/02 2:04:57 PM AST</t>
   </si>
   <si>
-    <t xml:space="preserve">China </t>
-  </si>
-  <si>
     <t>2022/07/02 2:05:40 PM AST</t>
   </si>
   <si>
@@ -109,31 +103,41 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>2022/07/02 2:13:35 PM AST</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>2022/07/02 2:23:44 PM AST</t>
+  </si>
+  <si>
+    <t>2022/07/02 4:11:10 PM AST</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>2022/07/02 5:10:49 PM AST</t>
+  </si>
+  <si>
+    <t>2022/07/02 6:40:41 PM AST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,19 +178,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +426,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -418,192 +439,270 @@
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E16" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
+++ b/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACFAB13-BD53-4710-B887-C9C8AE87458A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204C9080-086B-4C62-B398-EE3EFDC4CBC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="3915" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="600" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quick 1-minute Survey about you" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Timestamp</t>
   </si>
@@ -127,17 +127,27 @@
   </si>
   <si>
     <t>2022/07/02 6:40:41 PM AST</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,16 +207,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,7 +439,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -549,7 +562,9 @@
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
@@ -564,8 +579,8 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>

--- a/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
+++ b/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204C9080-086B-4C62-B398-EE3EFDC4CBC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D294B-501B-4177-8F5F-943230935B57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9375" yWindow="600" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,18 +129,25 @@
     <t>2022/07/02 6:40:41 PM AST</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,16 +214,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -579,7 +589,7 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">

--- a/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
+++ b/data/GP_cash_needs_survey_result_as_of_0208-7-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D294B-501B-4177-8F5F-943230935B57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA26CB9-C798-4248-A772-8D6CADA93A7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9375" yWindow="600" windowWidth="16665" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <t>2022/07/02 6:40:41 PM AST</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>No Answer</t>
   </si>
 </sst>
 </file>
